--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Navigate to URL</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>.search-keyword</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Search in Search-box</t>
+  </si>
+  <si>
+    <t>Make sure desired search display</t>
+  </si>
+  <si>
+    <t>Add desired product  to to Cart</t>
+  </si>
+  <si>
+    <t>Add desired product  to to Cart by matching text</t>
+  </si>
+  <si>
+    <t>Non cypress commands should be managed by then()promises</t>
   </si>
 </sst>
 </file>
@@ -407,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,6 +507,11 @@
     <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -523,12 +546,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Navigate to URL</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Non cypress commands should be managed by then()promises</t>
+  </si>
+  <si>
+    <t>Click Cart button</t>
+  </si>
+  <si>
+    <t>Click Proceed to Checkout using contains text</t>
+  </si>
+  <si>
+    <t>Click Place Order</t>
+  </si>
+  <si>
+    <t>for static dropdown the tag name should be 'select'</t>
   </si>
 </sst>
 </file>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,6 +526,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -524,7 +541,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,10 +563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,6 +604,21 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
